--- a/sql-helper/data/translate.xlsx
+++ b/sql-helper/data/translate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\graviti\sql-helper\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856D7B40-BC4B-4CC2-AD5C-AFD8EE331370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73665B5-3718-4908-B620-9069D06F1C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6C9F4969-4EAF-4559-8DF9-3EFBBE154F65}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="268">
   <si>
     <t>Japan</t>
   </si>
@@ -552,13 +552,301 @@
   </si>
   <si>
     <t>RANGE_CHECK_FG</t>
+  </si>
+  <si>
+    <t>SEQ枝番</t>
+  </si>
+  <si>
+    <t>SEQ_EDA_RB</t>
+  </si>
+  <si>
+    <t>代表商品フラグ</t>
+  </si>
+  <si>
+    <t>DAIHYO_SYOHIN_FG</t>
+  </si>
+  <si>
+    <t>出荷商品コード</t>
+  </si>
+  <si>
+    <t>SYUKA_SYOHIN_CD</t>
+  </si>
+  <si>
+    <t>出荷分類2コード</t>
+  </si>
+  <si>
+    <t>SYUKA_BUNRUI2_CD</t>
+  </si>
+  <si>
+    <t>出荷分類3コード</t>
+  </si>
+  <si>
+    <t>SYUKA_BUNRUI3_CD</t>
+  </si>
+  <si>
+    <t>出荷分類4コード</t>
+  </si>
+  <si>
+    <t>SYUKA_BUNRUI4_CD</t>
+  </si>
+  <si>
+    <t>出荷分類5コード</t>
+  </si>
+  <si>
+    <t>SYUKA_BUNRUI5_CD</t>
+  </si>
+  <si>
+    <t>出荷漢字品名</t>
+  </si>
+  <si>
+    <t>SYUKA_HINMEI_KANJI_NA</t>
+  </si>
+  <si>
+    <t>出荷漢字規格名</t>
+  </si>
+  <si>
+    <t>SYUKA_KIKAKU_KANJI_NA</t>
+  </si>
+  <si>
+    <t>出荷漢字規格名２</t>
+  </si>
+  <si>
+    <t>SYUKA_KIKAKU_KANJI_2_NA</t>
+  </si>
+  <si>
+    <t>出荷カナ品名</t>
+  </si>
+  <si>
+    <t>SYUKA_HINMEI_KANA_NA</t>
+  </si>
+  <si>
+    <t>出荷単位名</t>
+  </si>
+  <si>
+    <t>SYUKA_UNIT_NA</t>
+  </si>
+  <si>
+    <t>入荷商品コード</t>
+  </si>
+  <si>
+    <t>NYUKA_SYOHIN_CD</t>
+  </si>
+  <si>
+    <t>入荷分類2コード</t>
+  </si>
+  <si>
+    <t>NYUKA_BUNRUI2_CD</t>
+  </si>
+  <si>
+    <t>入荷分類3コード</t>
+  </si>
+  <si>
+    <t>NYUKA_BUNRUI3_CD</t>
+  </si>
+  <si>
+    <t>入荷分類4コード</t>
+  </si>
+  <si>
+    <t>NYUKA_BUNRUI4_CD</t>
+  </si>
+  <si>
+    <t>入荷分類5コード</t>
+  </si>
+  <si>
+    <t>NYUKA_BUNRUI5_CD</t>
+  </si>
+  <si>
+    <t>入荷漢字品名</t>
+  </si>
+  <si>
+    <t>NYUKA_HINMEI_KANJI_NA</t>
+  </si>
+  <si>
+    <t>入荷漢字規格名</t>
+  </si>
+  <si>
+    <t>NYUKA_KIKAKU_KANJI_NA</t>
+  </si>
+  <si>
+    <t>入荷漢字規格名２</t>
+  </si>
+  <si>
+    <t>NYUKA_KIKAKU_KANJI_2_NA</t>
+  </si>
+  <si>
+    <t>入荷カナ品名</t>
+  </si>
+  <si>
+    <t>NYUKA_HINMEI_KANA_NA</t>
+  </si>
+  <si>
+    <t>入荷単位名</t>
+  </si>
+  <si>
+    <t>NYUKA_UNIT_NA</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>SURYO_QT</t>
+  </si>
+  <si>
+    <t>検品数</t>
+  </si>
+  <si>
+    <t>KENPIN_QT</t>
+  </si>
+  <si>
+    <t>ASN出荷数</t>
+  </si>
+  <si>
+    <t>ASN_SYUKA_QT</t>
+  </si>
+  <si>
+    <t>重量</t>
+  </si>
+  <si>
+    <t>JYURYO_QT</t>
+  </si>
+  <si>
+    <t>出荷原単価</t>
+  </si>
+  <si>
+    <t>SYUKA_GENTANKA_VL</t>
+  </si>
+  <si>
+    <t>出荷売単価</t>
+  </si>
+  <si>
+    <t>SYUKA_BAITANKA_VL</t>
+  </si>
+  <si>
+    <t>出荷原価金額（税抜）</t>
+  </si>
+  <si>
+    <t>SYUKA_GENKA_ZEINUKI_VL</t>
+  </si>
+  <si>
+    <t>出荷原価金額（税込）</t>
+  </si>
+  <si>
+    <t>SYUKA_GENKA_ZEIKOMI_VL</t>
+  </si>
+  <si>
+    <t>出荷原価金額（税額）</t>
+  </si>
+  <si>
+    <t>SYUKA_GENKA_ZEIGAKU_VL</t>
+  </si>
+  <si>
+    <t>出荷原価金額（表示用）</t>
+  </si>
+  <si>
+    <t>SYUKA_GENKA_DISP_VL</t>
+  </si>
+  <si>
+    <t>出荷売価金額（税抜）</t>
+  </si>
+  <si>
+    <t>SYUKA_BAIKA_ZEINUKI_VL</t>
+  </si>
+  <si>
+    <t>出荷売価金額（税込）</t>
+  </si>
+  <si>
+    <t>SYUKA_BAIKA_ZEIKOMI_VL</t>
+  </si>
+  <si>
+    <t>出荷売価金額（税額）</t>
+  </si>
+  <si>
+    <t>SYUKA_BAIKA_ZEIGAKU_VL</t>
+  </si>
+  <si>
+    <t>出荷売価金額（表示用）</t>
+  </si>
+  <si>
+    <t>SYUKA_BAIKA_DISP_VL</t>
+  </si>
+  <si>
+    <t>入荷原単価</t>
+  </si>
+  <si>
+    <t>NYUKA_GENTANKA_VL</t>
+  </si>
+  <si>
+    <t>入荷売単価</t>
+  </si>
+  <si>
+    <t>NYUKA_BAITANKA_VL</t>
+  </si>
+  <si>
+    <t>入荷原価金額（税抜）</t>
+  </si>
+  <si>
+    <t>NYUKA_GENKA_ZEINUKI_VL</t>
+  </si>
+  <si>
+    <t>入荷原価金額（税込）</t>
+  </si>
+  <si>
+    <t>NYUKA_GENKA_ZAIKOMI_VL</t>
+  </si>
+  <si>
+    <t>入荷原価金額（税額）</t>
+  </si>
+  <si>
+    <t>NYUKA_GENKA_ZEIGAKU_VL</t>
+  </si>
+  <si>
+    <t>入荷原価金額（表示用）</t>
+  </si>
+  <si>
+    <t>NYUKA_GENKA_DISP_VL</t>
+  </si>
+  <si>
+    <t>入荷売価金額（税抜）</t>
+  </si>
+  <si>
+    <t>NYUKA_BAIKA_ZEINUKI_VL</t>
+  </si>
+  <si>
+    <t>入荷売価金額（税込）</t>
+  </si>
+  <si>
+    <t>NYUKA_BAIKA_ZEIKOMI_VL</t>
+  </si>
+  <si>
+    <t>入荷売価金額（税額）</t>
+  </si>
+  <si>
+    <t>NYUKA_BAIKA_ZEIGAKU_VL</t>
+  </si>
+  <si>
+    <t>入荷売価金額（表示用）</t>
+  </si>
+  <si>
+    <t>NYUKA_BAIKA_DISP_VL</t>
+  </si>
+  <si>
+    <t>M原単価</t>
+  </si>
+  <si>
+    <t>M_GENTANKA_VL</t>
+  </si>
+  <si>
+    <t>M売単価</t>
+  </si>
+  <si>
+    <t>M_BAITANKA_VL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -573,6 +861,12 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -582,7 +876,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -590,19 +884,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="標準_( 2. 1. 8) 発注データ－修正 仕様書v1r2_外部設計書_NZ01OR070-I1S.発注確定入力_UI内部設計書サンプル" xfId="1" xr:uid="{D7FF13FD-23EF-4421-8093-A7A73FD29419}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -943,15 +1285,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11FE67B7-7A26-4FAA-8978-6CD4A690CC1B}">
-  <dimension ref="A1:B87"/>
+  <dimension ref="A1:B152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
@@ -1642,7 +1985,530 @@
         <v>171</v>
       </c>
     </row>
+    <row r="88" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:B87 A153:B1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>

--- a/sql-helper/data/translate.xlsx
+++ b/sql-helper/data/translate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\graviti\sql-helper\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73665B5-3718-4908-B620-9069D06F1C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D442BE55-BEB4-486E-82ED-DD0FE07E2AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6C9F4969-4EAF-4559-8DF9-3EFBBE154F65}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="275">
   <si>
     <t>Japan</t>
   </si>
@@ -840,6 +840,27 @@
   </si>
   <si>
     <t>M_BAITANKA_VL</t>
+  </si>
+  <si>
+    <t>Việt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xóa </t>
+  </si>
+  <si>
+    <t>Thêm</t>
+  </si>
+  <si>
+    <t>Sửa</t>
+  </si>
+  <si>
+    <t>追加</t>
+  </si>
+  <si>
+    <t>消去</t>
+  </si>
+  <si>
+    <t>修理</t>
   </si>
 </sst>
 </file>
@@ -876,7 +897,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -910,15 +931,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1285,10 +1317,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11FE67B7-7A26-4FAA-8978-6CD4A690CC1B}">
-  <dimension ref="A1:B152"/>
+  <dimension ref="A1:C155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="B161" sqref="B161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1297,15 +1329,18 @@
     <col min="2" max="2" width="29.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1313,7 +1348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1321,7 +1356,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1329,7 +1364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1337,7 +1372,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1345,7 +1380,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1353,7 +1388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1361,7 +1396,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1369,7 +1404,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1377,7 +1412,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1385,7 +1420,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1393,7 +1428,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1401,7 +1436,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1409,7 +1444,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2441,7 +2476,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>260</v>
       </c>
@@ -2449,7 +2484,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>262</v>
       </c>
@@ -2457,7 +2492,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>264</v>
       </c>
@@ -2465,7 +2500,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>266</v>
       </c>
@@ -2473,7 +2508,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>160</v>
       </c>
@@ -2481,7 +2516,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>162</v>
       </c>
@@ -2489,7 +2524,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>164</v>
       </c>
@@ -2497,12 +2532,36 @@
         <v>165</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>166</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A153" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C153" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C154" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C155" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/sql-helper/data/translate.xlsx
+++ b/sql-helper/data/translate.xlsx
@@ -2,24 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\graviti\sql-helper\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D442BE55-BEB4-486E-82ED-DD0FE07E2AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDE43D0-1CE1-4807-A318-6816219A0D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6C9F4969-4EAF-4559-8DF9-3EFBBE154F65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="306">
   <si>
     <t>Japan</t>
   </si>
@@ -44,24 +41,30 @@
     <t>En</t>
   </si>
   <si>
+    <t>Việt</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>法人コード</t>
+  </si>
+  <si>
+    <t>COMP_CD</t>
+  </si>
+  <si>
+    <t>SEQ番号</t>
+  </si>
+  <si>
+    <t>SEQ_NB</t>
+  </si>
+  <si>
     <t>伝票区分</t>
   </si>
   <si>
     <t>DENPYO_KB</t>
   </si>
   <si>
-    <t>法人コード</t>
-  </si>
-  <si>
-    <t>COMP_CD</t>
-  </si>
-  <si>
-    <t>SEQ番号</t>
-  </si>
-  <si>
-    <t>SEQ_NB</t>
-  </si>
-  <si>
     <t>伝票種別</t>
   </si>
   <si>
@@ -842,51 +845,125 @@
     <t>M_BAITANKA_VL</t>
   </si>
   <si>
-    <t>Việt</t>
+    <t>消去</t>
   </si>
   <si>
     <t xml:space="preserve">Xóa </t>
   </si>
   <si>
+    <t>追加</t>
+  </si>
+  <si>
     <t>Thêm</t>
   </si>
   <si>
+    <t>修理</t>
+  </si>
+  <si>
     <t>Sửa</t>
   </si>
   <si>
-    <t>追加</t>
-  </si>
-  <si>
-    <t>消去</t>
-  </si>
-  <si>
-    <t>修理</t>
+    <t>トランSEQ番号</t>
+  </si>
+  <si>
+    <t>TRAN_SEQ_NB</t>
+  </si>
+  <si>
+    <t>トランSEQ枝番</t>
+  </si>
+  <si>
+    <t>TRAN_SEQ_EDA_RB</t>
+  </si>
+  <si>
+    <t>店舗コード</t>
+  </si>
+  <si>
+    <t>TENPO_CD</t>
+  </si>
+  <si>
+    <t>発注日</t>
+  </si>
+  <si>
+    <t>HACHU_DT</t>
+  </si>
+  <si>
+    <t>納品予定日</t>
+  </si>
+  <si>
+    <t>NOHIN_YOTEI_DT</t>
+  </si>
+  <si>
+    <t>納品確定日</t>
+  </si>
+  <si>
+    <t>NOHIN_KAKUTEI_DT</t>
+  </si>
+  <si>
+    <t>定番特売種別区分</t>
+  </si>
+  <si>
+    <t>TEIBAN_TOKUBAI_SBT_KB</t>
+  </si>
+  <si>
+    <t>納品状態</t>
+  </si>
+  <si>
+    <t>NOHIN_STATUS_KB</t>
+  </si>
+  <si>
+    <t>＜発注＞便区分</t>
+  </si>
+  <si>
+    <t>HACHU_BIN_KB</t>
+  </si>
+  <si>
+    <t>実績データ区分</t>
+  </si>
+  <si>
+    <t>MEISAI_GYO_NB</t>
+  </si>
+  <si>
+    <t>商品コード</t>
+  </si>
+  <si>
+    <t>SYOHIN_CD</t>
+  </si>
+  <si>
+    <t>＜発注＞数量</t>
+  </si>
+  <si>
+    <t>HACHU_SURYO_QT</t>
+  </si>
+  <si>
+    <t>納品数量</t>
+  </si>
+  <si>
+    <t>NOHIN_SURYO_QT</t>
+  </si>
+  <si>
+    <t>欠品数量</t>
+  </si>
+  <si>
+    <t>KEPPIN_SURYO_QT</t>
+  </si>
+  <si>
+    <t>履歴区分</t>
+  </si>
+  <si>
+    <t>RIREKI_KB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -897,7 +974,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -905,78 +982,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準_( 2. 1. 8) 発注データ－修正 仕様書v1r2_外部設計書_NZ01OR070-I1S.発注確定入力_UI内部設計書サンプル" xfId="1" xr:uid="{D7FF13FD-23EF-4421-8093-A7A73FD29419}"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -988,7 +1004,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1011,44 +1027,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1076,31 +1092,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1128,23 +1127,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1156,136 +1138,180 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr"/>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
     <a:lnDef>
       <a:spPr/>
       <a:bodyPr/>
@@ -1307,29 +1333,20 @@
     </a:lnDef>
   </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11FE67B7-7A26-4FAA-8978-6CD4A690CC1B}">
-  <dimension ref="A1:C155"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="B161" sqref="B161"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1337,1240 +1354,1688 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+        <v>79</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+        <v>81</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+      <c r="C42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B45" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B47" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+        <v>93</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B48" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+      <c r="C48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B49" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+      <c r="C49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B50" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+      <c r="C50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B54" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B55" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B57" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+      <c r="C57" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B58" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+      <c r="C58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B59" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B60" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+      <c r="C60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B61" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="C61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+      <c r="C62" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B63" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+      <c r="C63" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B64" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+      <c r="C64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B65" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+      <c r="C65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B66" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+      <c r="C66" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B67" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+        <v>133</v>
+      </c>
+      <c r="C67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B68" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+      <c r="C68" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B69" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+      <c r="C69" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B70" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+      <c r="C70" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B71" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+      <c r="C71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B72" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+        <v>143</v>
+      </c>
+      <c r="C72" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B73" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+      <c r="C73" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B74" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+      <c r="C74" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B75" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="C75" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B76" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+      <c r="C76" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B77" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+      <c r="C77" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B78" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+        <v>155</v>
+      </c>
+      <c r="C78" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B79" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+      <c r="C79" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B80" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+        <v>159</v>
+      </c>
+      <c r="C80" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B81" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+      <c r="C81" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B82" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+        <v>163</v>
+      </c>
+      <c r="C82" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B83" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+        <v>165</v>
+      </c>
+      <c r="C83" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B84" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+        <v>167</v>
+      </c>
+      <c r="C84" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B85" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+        <v>169</v>
+      </c>
+      <c r="C85" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B86" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+        <v>171</v>
+      </c>
+      <c r="C86" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B87" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B90" s="2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+      <c r="C87" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>174</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B88" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+      <c r="C88" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>176</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B89" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+      <c r="C89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>178</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B90" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+      <c r="C90" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>180</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B91" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
+      <c r="C91" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>182</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B92" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+      <c r="C92" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>184</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B93" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
+      <c r="C93" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>186</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B94" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+      <c r="C94" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>188</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B95" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
+      <c r="C95" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>190</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B96" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+      <c r="C96" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>192</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B97" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+      <c r="C97" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>194</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B98" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+      <c r="C98" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>196</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B99" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+      <c r="C99" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>198</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B100" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
+      <c r="C100" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>200</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B101" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+      <c r="C101" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>202</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B102" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
+      <c r="C102" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>204</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B103" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
+      <c r="C103" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>206</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B104" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
+      <c r="C104" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>208</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B105" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+      <c r="C105" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>210</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B106" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
+      <c r="C106" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>212</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B107" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
+      <c r="C107" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>214</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B108" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
+      <c r="C108" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>216</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B109" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
+      <c r="C109" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>218</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B110" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
+      <c r="C110" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>220</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B111" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
+      <c r="C111" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>222</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B112" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
+      <c r="C112" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>224</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B113" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
+      <c r="C113" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>226</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B114" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
+      <c r="C114" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>228</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B115" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
+      <c r="C115" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>230</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B116" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
+      <c r="C116" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>232</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B117" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
+      <c r="C117" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>234</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B118" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
+      <c r="C118" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>236</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B119" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
+      <c r="C119" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>238</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B120" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
+      <c r="C120" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>240</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B121" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
+      <c r="C121" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>242</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B122" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
+      <c r="C122" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>244</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B123" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
+      <c r="C123" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>246</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B124" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
+      <c r="C124" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>248</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B125" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
+      <c r="C125" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>250</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B126" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
+      <c r="C126" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>252</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B127" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
+      <c r="C127" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>254</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B128" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
+      <c r="C128" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>256</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B129" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
+      <c r="C129" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>258</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B130" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
+      <c r="C130" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>260</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B131" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
+      <c r="C131" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>262</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B132" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
+      <c r="C132" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>264</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B133" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
+      <c r="C133" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>266</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B134" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A151" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A152" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A153" s="4" t="s">
+      <c r="C134" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>268</v>
+      </c>
+      <c r="B135" t="s">
+        <v>269</v>
+      </c>
+      <c r="C135" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>270</v>
+      </c>
+      <c r="B136" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>272</v>
+      </c>
+      <c r="B137" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137" t="s">
         <v>273</v>
       </c>
+    </row>
+    <row r="138" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>274</v>
+      </c>
+      <c r="B138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>276</v>
+      </c>
+      <c r="B139" t="s">
+        <v>277</v>
+      </c>
+      <c r="C139" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>278</v>
+      </c>
+      <c r="B140" t="s">
+        <v>279</v>
+      </c>
+      <c r="C140" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>280</v>
+      </c>
+      <c r="B141" t="s">
+        <v>281</v>
+      </c>
+      <c r="C141" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>282</v>
+      </c>
+      <c r="B142" t="s">
+        <v>283</v>
+      </c>
+      <c r="C142" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>284</v>
+      </c>
+      <c r="B143" t="s">
+        <v>285</v>
+      </c>
+      <c r="C143" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>286</v>
+      </c>
+      <c r="B144" t="s">
+        <v>287</v>
+      </c>
+      <c r="C144" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>288</v>
+      </c>
+      <c r="B145" t="s">
+        <v>289</v>
+      </c>
+      <c r="C145" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>290</v>
+      </c>
+      <c r="B146" t="s">
+        <v>291</v>
+      </c>
+      <c r="C146" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>292</v>
+      </c>
+      <c r="B147" t="s">
+        <v>293</v>
+      </c>
+      <c r="C147" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>294</v>
+      </c>
+      <c r="B148" t="s">
+        <v>295</v>
+      </c>
+      <c r="C148" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>296</v>
+      </c>
+      <c r="B149" t="s">
+        <v>297</v>
+      </c>
+      <c r="C149" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>298</v>
+      </c>
+      <c r="B150" t="s">
+        <v>299</v>
+      </c>
+      <c r="C150" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>300</v>
+      </c>
+      <c r="B151" t="s">
+        <v>301</v>
+      </c>
+      <c r="C151" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>302</v>
+      </c>
+      <c r="B152" t="s">
+        <v>303</v>
+      </c>
+      <c r="C152" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>304</v>
+      </c>
+      <c r="B153" t="s">
+        <v>305</v>
+      </c>
       <c r="C153" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A154" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="C154" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A155" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="C155" t="s">
-        <v>271</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:B87 A153:B1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:C153" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>